--- a/Excel-Tables/Haushaltsbuch.xlsx
+++ b/Excel-Tables/Haushaltsbuch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Haushaltsbuch" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">Datum </t>
   </si>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Mittagessen</t>
   </si>
   <si>
-    <t xml:space="preserve">DKB Kredit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bargeld</t>
+    <t xml:space="preserve">DKB Kreditkarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bargeldabhebung</t>
   </si>
   <si>
     <t xml:space="preserve">Beispielzeile</t>
@@ -80,43 +80,13 @@
     <t xml:space="preserve">Kategorie, der die Barzahlung zugeordnet werden soll. Wird das Feld leer gelassen erfolgt die Kategorisierung durch KYSA anhand des Tabellenblatts Girokonto der Zuordnungstabelle. Wenn Sie die Kategorie eintragen, achten Sie darauf, dass bei gleichlautenden Kategorienamen in der Zuordnungstabelle und im Haushaltsbuch die Schreibweisen identisch sind. Nur so können Kategorien bei der Datenauswertung zusammengefasst werden. </t>
   </si>
   <si>
-    <t xml:space="preserve">Bezeichnet den Kontotyp auf den die Bargeld-Ausgabe angerechnet wird. Bei mehreren Konten des selben Typs kann das Feld Bargeldbezeichnung genutzt werden, um die Konten zu unterscheiden.</t>
+    <t xml:space="preserve">Kontoname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezeichnet den Kontonamen auf den die Bargeld-Ausgabe angerechnet wird. Bei mehreren importierten Dateien zum Kontennamen, werden alle Dateien in die Analyse einbezogen. Zusätzlich kann das Feld Bargeldbezeichnung genutzt werden, um die Konten mit unterschiedlichen Bargeldkategorien zu unterscheiden.</t>
   </si>
   <si>
     <t xml:space="preserve">Wenn verschiedene Bargeld-Kategorienamen bei dem angegebenen Kontotyp genutzt werden, dann ist hier die Bezeichnung, auf die der Betrag angerechnet werden soll, anzugeben. Damit können nicht nur verschieden Bargeldzahlungen (z.B. unterschieden nach Städten), sondern auch Konten (z.B. Bargeld Konto A) unterschieden werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mögliche Kontotypen;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comdirect Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comdirect Kreditkarte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKB Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKB Kreditkarte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLP / Triodos Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apobank Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparkasse Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commerzbank Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsche Bank Girokonto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consorsbank Girokonto</t>
   </si>
 </sst>
 </file>
@@ -125,10 +95,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-407]DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="[$-407]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,13 +127,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,14 +244,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,17 +296,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A10:A19 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048524" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
@@ -377,7 +332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>43983</v>
       </c>
@@ -399,159 +354,6 @@
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -565,14 +367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,117 +384,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="62.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="88" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
